--- a/data/TestCase.xlsx
+++ b/data/TestCase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\SanuK01\WebstormProjects\cypress-allure-amadeus-qa-automation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\SanuK01\WebstormProjects\cypress-allure-amadeus-qa-automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806660A7-69F6-4B6C-A6F9-F3338E70A0B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B6C717-17A3-4275-93BD-565B20B75CDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Type</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>11-Nov-2023| 13-Nov-2023 |</t>
+  </si>
+  <si>
+    <t>9|9|9</t>
   </si>
 </sst>
 </file>
@@ -107,10 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +430,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -463,11 +465,11 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -483,7 +485,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
